--- a/data/trans_orig/P14C98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C98-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19429014-95FA-4142-85DD-48CC74D8830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EAC8B9B-AE08-46A1-8C7F-366E87E1D81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{188DA3E5-CC6E-4EFD-A894-A36142D3BA14}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C53F8541-739F-40CF-8DC1-7A1830B06B94}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="74">
   <si>
     <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
   </si>
@@ -122,142 +122,139 @@
     <t>80,58%</t>
   </si>
   <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>20,95%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -672,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39B73A2-462B-4B7B-AEC7-F73FFBB93C04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD23785A-EB12-4C86-9E1D-D8C3CEC13D97}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1883,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -1892,13 +1889,13 @@
         <v>2151</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -1907,13 +1904,13 @@
         <v>4221</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,28 +1925,28 @@
         <v>1084</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -1958,13 +1955,13 @@
         <v>1084</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2017,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C98-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EAC8B9B-AE08-46A1-8C7F-366E87E1D81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F80189-109D-4AA5-BD6F-6C566355B9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C53F8541-739F-40CF-8DC1-7A1830B06B94}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CA0930C-003A-4862-9ADE-3C18D9D27B8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="74">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="75">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -104,7 +104,7 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -116,7 +116,7 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>80,58%</t>
@@ -131,7 +131,7 @@
     <t>89,09%</t>
   </si>
   <si>
-    <t>55,05%</t>
+    <t>53,96%</t>
   </si>
   <si>
     <t>19,42%</t>
@@ -146,7 +146,7 @@
     <t>10,91%</t>
   </si>
   <si>
-    <t>44,95%</t>
+    <t>46,04%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -155,7 +155,7 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>31,16%</t>
@@ -203,49 +203,52 @@
     <t>75,52%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>46,5%</t>
+    <t>36,96%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
+    <t>42,66%</t>
+  </si>
+  <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>53,5%</t>
+    <t>63,04%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -254,7 +257,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -669,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD23785A-EB12-4C86-9E1D-D8C3CEC13D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7583214C-1132-42A6-992E-8E25D808A8B7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1880,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -1889,13 +1892,13 @@
         <v>2151</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -1904,13 +1907,13 @@
         <v>4221</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1928,13 @@
         <v>1084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -1946,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -1955,13 +1958,13 @@
         <v>1084</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2020,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
